--- a/CountryReconciler/reconciler/files/country_list.xlsx
+++ b/CountryReconciler/reconciler/files/country_list.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cristian\Documents\Git\landportal-receiver\countries\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="-435" windowWidth="27315" windowHeight="13740"/>
   </bookViews>
@@ -29,7 +24,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="BL259" authorId="0" shapeId="0">
+    <comment ref="BL259" authorId="0">
       <text>
         <r>
           <rPr>
@@ -6656,7 +6651,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -6763,6 +6758,12 @@
       <sz val="10"/>
       <color theme="11"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="19">
@@ -7087,7 +7088,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -7170,6 +7171,7 @@
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="147">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -7746,6 +7748,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12696825" cy="12849225"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12696825" cy="12849225"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7792,7 +7890,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7827,7 +7925,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8038,8 +8136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AD13" sqref="AD13"/>
+    <sheetView tabSelected="1" topLeftCell="AL176" workbookViewId="0">
+      <selection activeCell="AX185" sqref="AX185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -34212,7 +34310,7 @@
       <c r="C185" s="7" t="s">
         <v>1607</v>
       </c>
-      <c r="D185" s="7" t="s">
+      <c r="D185" s="38" t="s">
         <v>1608</v>
       </c>
       <c r="E185" s="3"/>
@@ -43835,9 +43933,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/CountryReconciler/reconciler/files/country_list.xlsx
+++ b/CountryReconciler/reconciler/files/country_list.xlsx
@@ -7844,6 +7844,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12696825" cy="12849225"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8136,8 +8184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL176" workbookViewId="0">
-      <selection activeCell="AX185" sqref="AX185"/>
+    <sheetView tabSelected="1" topLeftCell="C151" workbookViewId="0">
+      <selection activeCell="F178" sqref="F178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -34311,7 +34359,7 @@
         <v>1607</v>
       </c>
       <c r="D185" s="38" t="s">
-        <v>1608</v>
+        <v>1612</v>
       </c>
       <c r="E185" s="3"/>
       <c r="F185" s="7" t="s">

--- a/CountryReconciler/reconciler/files/country_list.xlsx
+++ b/CountryReconciler/reconciler/files/country_list.xlsx
@@ -7892,6 +7892,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12696825" cy="12849225"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8184,8 +8232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C151" workbookViewId="0">
-      <selection activeCell="F178" sqref="F178"/>
+    <sheetView tabSelected="1" topLeftCell="AQ74" workbookViewId="0">
+      <selection activeCell="AV103" sqref="AV103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -21013,7 +21061,9 @@
       <c r="AU90" s="7">
         <v>-99</v>
       </c>
-      <c r="AV90" s="24"/>
+      <c r="AV90" s="24">
+        <v>85</v>
+      </c>
     </row>
     <row r="91" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A91" s="17" t="s">
@@ -22652,7 +22702,9 @@
       <c r="AU102" s="7">
         <v>-99</v>
       </c>
-      <c r="AV102" s="24"/>
+      <c r="AV102" s="24">
+        <v>264</v>
+      </c>
     </row>
     <row r="103" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A103" s="17" t="s">
@@ -29822,7 +29874,9 @@
       <c r="AU152" s="7">
         <v>-99</v>
       </c>
-      <c r="AV152" s="24"/>
+      <c r="AV152" s="24">
+        <v>163</v>
+      </c>
     </row>
     <row r="153" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A153" s="17" t="s">
@@ -31326,7 +31380,9 @@
       <c r="AU163" s="7">
         <v>-99</v>
       </c>
-      <c r="AV163" s="24"/>
+      <c r="AV163" s="24">
+        <v>161</v>
+      </c>
     </row>
     <row r="164" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A164" s="17" t="s">
@@ -33050,7 +33106,9 @@
       <c r="AU175" s="7">
         <v>-99</v>
       </c>
-      <c r="AV175" s="24"/>
+      <c r="AV175" s="24">
+        <v>172</v>
+      </c>
     </row>
     <row r="176" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A176" s="17" t="s">
@@ -35414,7 +35472,9 @@
       <c r="AU192" s="7">
         <v>1</v>
       </c>
-      <c r="AV192" s="24"/>
+      <c r="AV192" s="24">
+        <v>205</v>
+      </c>
     </row>
     <row r="193" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A193" s="17" t="s">
@@ -40652,6 +40712,9 @@
       <c r="AU229" s="17">
         <v>1</v>
       </c>
+      <c r="AV229">
+        <v>227</v>
+      </c>
     </row>
     <row r="230" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A230" s="17" t="s">
@@ -42231,7 +42294,9 @@
       <c r="AU240" s="7">
         <v>-99</v>
       </c>
-      <c r="AV240" s="24"/>
+      <c r="AV240" s="24">
+        <v>240</v>
+      </c>
     </row>
     <row r="241" spans="1:48" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A241" s="17" t="s">
